--- a/template.xlsx
+++ b/template.xlsx
@@ -106,7 +106,7 @@
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,20 +119,8 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="14"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -155,149 +143,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -307,43 +159,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1536,21 +1352,19 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="4" width="16.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="1" customWidth="1"/>
-    <col min="7" max="257" width="16.33203125" customWidth="1"/>
+    <col min="5" max="255" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1563,176 +1377,6 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1749,19 +1393,19 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="5" width="16.33203125" style="12" customWidth="1"/>
-    <col min="6" max="256" width="16.33203125" customWidth="1"/>
+    <col min="1" max="3" width="16.33203125" style="3" customWidth="1"/>
+    <col min="4" max="254" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1771,71 +1415,6 @@
       <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -1352,10 +1352,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1379,19 +1379,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>111</v>
-      </c>
-      <c r="B2">
-        <v>11</v>
-      </c>
+      <c r="A2"/>
+      <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
-    </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C3" s="1">
-        <v>33</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
